--- a/config_vivo/提审配置/game_activity_config.xlsx
+++ b/config_vivo/提审配置/game_activity_config.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|其他配置'!$A$1:$X$8</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -697,7 +697,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -858,7 +858,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="9">
@@ -1021,7 +1021,7 @@
         <v>39</v>
       </c>
       <c r="D6" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>40</v>
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
@@ -1179,7 +1179,7 @@
         <v>53</v>
       </c>
       <c r="D9" s="20">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>54</v>
@@ -1240,14 +1240,16 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1259,16 +1261,14 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1278,13 +1278,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1296,13 +1296,13 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>